--- a/data/trans_dic/MCS12_SP_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2277986655959463</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2285629820277664</v>
+        <v>0.2285629820277665</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1152232912486478</v>
+        <v>0.1179404246042327</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1705350776959854</v>
+        <v>0.1703868547969278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1554447948587904</v>
+        <v>0.1524872233519088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1777816681268321</v>
+        <v>0.1788787967430314</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1763117271145767</v>
+        <v>0.1768505334325354</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3092468108908493</v>
+        <v>0.3106507106939927</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2418379465508517</v>
+        <v>0.2404426159152677</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2273361344939705</v>
+        <v>0.2243926478703316</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.152349546804957</v>
+        <v>0.1527513392431545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2466413837094158</v>
+        <v>0.2468448563139524</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2061310316556958</v>
+        <v>0.2060175538405505</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2104991006770811</v>
+        <v>0.2091341910947888</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1684063637695962</v>
+        <v>0.1719927934334541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2318728097891065</v>
+        <v>0.2324660267951226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2168763846641135</v>
+        <v>0.2127460074419368</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2413720961705243</v>
+        <v>0.2365238526493908</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2366529908339575</v>
+        <v>0.2358585768029939</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3855563515868768</v>
+        <v>0.3832865148103787</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3089309255151779</v>
+        <v>0.3108412202316153</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2770917059508742</v>
+        <v>0.2762882044982697</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1938107075618576</v>
+        <v>0.193234814956872</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2949255383428293</v>
+        <v>0.2949020839038671</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2520099748746579</v>
+        <v>0.2492325909987303</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2488870799065949</v>
+        <v>0.2501088136077853</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1703712619144777</v>
+        <v>0.1672842161359732</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2031932638720214</v>
+        <v>0.2004097461827282</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1401139869283128</v>
+        <v>0.1422258184757008</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1512313617171389</v>
+        <v>0.1492174913776027</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2676473909550534</v>
+        <v>0.2665992461631075</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2847147561128069</v>
+        <v>0.2857344151271705</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2212076569424128</v>
+        <v>0.2233213328905233</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2590564120571755</v>
+        <v>0.2566765630943851</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2267459713136262</v>
+        <v>0.2256416647128271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2529808707979773</v>
+        <v>0.2529275595791066</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1870214956679336</v>
+        <v>0.1888820310401796</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2114092802481426</v>
+        <v>0.2119977681746721</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2196380146843325</v>
+        <v>0.2192801227635486</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2598643321348941</v>
+        <v>0.2576722303930519</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1888786752475269</v>
+        <v>0.1892573750119965</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1984987917281289</v>
+        <v>0.1991426958519427</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3261847970131951</v>
+        <v>0.3266219207234067</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3454586481463466</v>
+        <v>0.3472868979739657</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2772177811817903</v>
+        <v>0.2759924456620841</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3060080936348147</v>
+        <v>0.304126454962896</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2663304596195932</v>
+        <v>0.265502757858426</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2960700563203955</v>
+        <v>0.2936346973443987</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2240214389010643</v>
+        <v>0.2250778018682563</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.244470293651621</v>
+        <v>0.2458933463016217</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1445549410742696</v>
+        <v>0.1468691559500708</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1737048965025402</v>
+        <v>0.1726155668745839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1582892849910945</v>
+        <v>0.1594195442572437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1788761575100715</v>
+        <v>0.179238294104925</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2267769531153406</v>
+        <v>0.2298762842597071</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2778935023824018</v>
+        <v>0.275553115005694</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2348600956610724</v>
+        <v>0.2331318169470377</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2419938510730406</v>
+        <v>0.2415880286177506</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1939946071403704</v>
+        <v>0.1950219037852507</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2327297641567781</v>
+        <v>0.2346041395152553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2046718583479472</v>
+        <v>0.2055844994676221</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2190487512830952</v>
+        <v>0.2189765084416706</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.204439700816143</v>
+        <v>0.2091501081809117</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2378258548151899</v>
+        <v>0.2356218957140398</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2169714446200453</v>
+        <v>0.2165907608986823</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2410581066607264</v>
+        <v>0.2428564618513673</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2924666784209459</v>
+        <v>0.2943961634454224</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3430809961935828</v>
+        <v>0.3438108524513864</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3004542281344503</v>
+        <v>0.2982107406992736</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3010380857010389</v>
+        <v>0.2996431212912229</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2392142780042531</v>
+        <v>0.2399155761216636</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2812652792724507</v>
+        <v>0.2808448481749157</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2515317678969621</v>
+        <v>0.249843457392321</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2639158182801801</v>
+        <v>0.2634481606345414</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1961420062644429</v>
+        <v>0.1944103110077807</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2164848856237166</v>
+        <v>0.220986946694631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1947776645397683</v>
+        <v>0.1964175558220947</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1788147389431795</v>
+        <v>0.1770894209699587</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2526596000193227</v>
+        <v>0.2526884639833378</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3109705135016742</v>
+        <v>0.3087212338347803</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2565183324765445</v>
+        <v>0.2576744446174229</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2747111813442475</v>
+        <v>0.2727638129294227</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2340530856978945</v>
+        <v>0.2338223768949773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2752320241583685</v>
+        <v>0.275940625277863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2367601796048416</v>
+        <v>0.2357161594543221</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2357528956482507</v>
+        <v>0.2344751200656444</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2494936133647984</v>
+        <v>0.2478805131466312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2756654290890533</v>
+        <v>0.2766699134394643</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2515841632388957</v>
+        <v>0.2506727919689172</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2332527260681115</v>
+        <v>0.2293895474707697</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3088564247284651</v>
+        <v>0.3085236955116983</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3694863148884027</v>
+        <v>0.3695256570934385</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3145316894009469</v>
+        <v>0.3151515830631106</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3206289913692945</v>
+        <v>0.3220570105060427</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2718540171548374</v>
+        <v>0.2709087346382175</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3175345125849429</v>
+        <v>0.3175732360279627</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2763400092980047</v>
+        <v>0.2748218516840752</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2736536176646485</v>
+        <v>0.2708170794366422</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1732786090292094</v>
+        <v>0.1724801653234511</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2085679867192891</v>
+        <v>0.206689313518852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.175776171615337</v>
+        <v>0.1743461693111342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.182749458011709</v>
+        <v>0.1838368712158847</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2512254481176807</v>
+        <v>0.2499129579972557</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3121557966451844</v>
+        <v>0.310159459133678</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2522875846355306</v>
+        <v>0.2521310107500963</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2644302021651369</v>
+        <v>0.2645792947983531</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2174564544668633</v>
+        <v>0.2163032369262539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2645889654742643</v>
+        <v>0.2653476587535326</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2188406940289223</v>
+        <v>0.2185015646067007</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2287554907899446</v>
+        <v>0.2294603576448223</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.200480537593351</v>
+        <v>0.2010159286557666</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2391548963825768</v>
+        <v>0.2384484213747543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2028016049469306</v>
+        <v>0.2025525008157279</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2113502484598968</v>
+        <v>0.2094412376526402</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2819415622131851</v>
+        <v>0.2797816737309765</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3457045972580773</v>
+        <v>0.3426132049751353</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.282024611949249</v>
+        <v>0.2828648553389156</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2908677861580445</v>
+        <v>0.2914389901188402</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2373116122914047</v>
+        <v>0.2370823018040929</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2873984251039456</v>
+        <v>0.2872896069623712</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2398217258925491</v>
+        <v>0.2390986908604577</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2479045297472041</v>
+        <v>0.2481668419143679</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>79966</v>
+        <v>81852</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>119966</v>
+        <v>119862</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>104894</v>
+        <v>102898</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>121740</v>
+        <v>122491</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>121364</v>
+        <v>121735</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>215560</v>
+        <v>216539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>162718</v>
+        <v>161779</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>165280</v>
+        <v>163140</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>210602</v>
+        <v>211158</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>345426</v>
+        <v>345711</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>277790</v>
+        <v>277637</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>297183</v>
+        <v>295256</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>116876</v>
+        <v>119365</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>163115</v>
+        <v>163533</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>146348</v>
+        <v>143561</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>165285</v>
+        <v>161965</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>162900</v>
+        <v>162353</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>268752</v>
+        <v>267170</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>207861</v>
+        <v>209146</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>201454</v>
+        <v>200870</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>267917</v>
+        <v>267121</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>413049</v>
+        <v>413016</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>339618</v>
+        <v>335876</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>351379</v>
+        <v>353104</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>163863</v>
+        <v>160894</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>206840</v>
+        <v>204006</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>143257</v>
+        <v>145416</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>157860</v>
+        <v>155758</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>259188</v>
+        <v>258173</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>293878</v>
+        <v>294930</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>230700</v>
+        <v>232905</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>275924</v>
+        <v>273389</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>437663</v>
+        <v>435532</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>518644</v>
+        <v>518535</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>386264</v>
+        <v>390106</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>445850</v>
+        <v>447091</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>211248</v>
+        <v>210904</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>264528</v>
+        <v>262297</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>193115</v>
+        <v>193503</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>207199</v>
+        <v>207871</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>315875</v>
+        <v>316298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>356577</v>
+        <v>358464</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>289114</v>
+        <v>287836</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>325933</v>
+        <v>323928</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>514069</v>
+        <v>512472</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>606982</v>
+        <v>601990</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>462681</v>
+        <v>464863</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>515574</v>
+        <v>518575</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>98082</v>
+        <v>99652</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>131603</v>
+        <v>130778</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>120229</v>
+        <v>121087</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>143163</v>
+        <v>143452</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>155079</v>
+        <v>157199</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>215972</v>
+        <v>214153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>184368</v>
+        <v>183011</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>196113</v>
+        <v>195784</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>264289</v>
+        <v>265688</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>357193</v>
+        <v>360070</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>316129</v>
+        <v>317538</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>352833</v>
+        <v>352716</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>138714</v>
+        <v>141910</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>180182</v>
+        <v>178513</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>164801</v>
+        <v>164512</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>192930</v>
+        <v>194369</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>200001</v>
+        <v>201320</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>266634</v>
+        <v>267201</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>235860</v>
+        <v>234099</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>243962</v>
+        <v>242832</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>325894</v>
+        <v>326849</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>431685</v>
+        <v>431040</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>388507</v>
+        <v>385899</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>425102</v>
+        <v>424349</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>184809</v>
+        <v>183178</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>205171</v>
+        <v>209438</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>182617</v>
+        <v>184155</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>176339</v>
+        <v>174638</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>262415</v>
+        <v>262445</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>327110</v>
+        <v>324744</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>267748</v>
+        <v>268955</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>305776</v>
+        <v>303608</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>463620</v>
+        <v>463163</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>550365</v>
+        <v>551782</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>469104</v>
+        <v>467035</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>494901</v>
+        <v>492219</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>235078</v>
+        <v>233558</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>261259</v>
+        <v>262211</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>235877</v>
+        <v>235023</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>230023</v>
+        <v>226214</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>320782</v>
+        <v>320436</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>388663</v>
+        <v>388704</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>328302</v>
+        <v>328949</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>356886</v>
+        <v>358476</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>538498</v>
+        <v>536625</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>634955</v>
+        <v>635032</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>547525</v>
+        <v>544517</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>574464</v>
+        <v>568509</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>567755</v>
+        <v>565139</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>714716</v>
+        <v>708279</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>596646</v>
+        <v>591792</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>642383</v>
+        <v>646206</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>848940</v>
+        <v>844505</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1110747</v>
+        <v>1103643</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>894244</v>
+        <v>893689</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>982524</v>
+        <v>983078</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1447334</v>
+        <v>1439658</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1848177</v>
+        <v>1853477</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1518512</v>
+        <v>1516159</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1654069</v>
+        <v>1659166</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>656883</v>
+        <v>658637</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>819531</v>
+        <v>817110</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>688380</v>
+        <v>687534</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>742918</v>
+        <v>736208</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>952736</v>
+        <v>945437</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1230124</v>
+        <v>1219124</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>999648</v>
+        <v>1002626</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1080756</v>
+        <v>1082879</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1579485</v>
+        <v>1577958</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2007503</v>
+        <v>2006743</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1664097</v>
+        <v>1659080</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1792531</v>
+        <v>1794427</v>
       </c>
     </row>
     <row r="24">
